--- a/multiday_test.xlsx
+++ b/multiday_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhasterok/Google Drive/students/Sam_Jennings/PhD/laboratory (1)/laboratory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1654095\Desktop\laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62B32F5-5541-EE49-BD13-AF9331C1312B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15960" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>target_temp</t>
   </si>
@@ -34,13 +33,7 @@
     <t>buffer</t>
   </si>
   <si>
-    <t>iw</t>
-  </si>
-  <si>
     <t>offset</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
   <si>
     <t>fo2_gas</t>
@@ -54,11 +47,14 @@
   <si>
     <t>qfm</t>
   </si>
+  <si>
+    <t>co</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -149,6 +145,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,38 +1341,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.6640625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="8" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="8" customWidth="1"/>
-    <col min="8" max="255" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="12" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" style="8" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" style="8" customWidth="1"/>
+    <col min="8" max="255" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -1381,958 +1385,412 @@
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>300</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2.5</v>
+        <v>100</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.25</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>325</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.5</v>
+        <v>150</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.25</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>350</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>375</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>400</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>425</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>450</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>475</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>500</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>525</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>550</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>575</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>600</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>625</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>650</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C17" s="4">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>675</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C18" s="4">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5">
-        <v>5</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>700</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5">
-        <v>5</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>725</v>
-      </c>
-      <c r="B20" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>750</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C21" s="4">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5">
-        <v>5</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>775</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>800</v>
-      </c>
-      <c r="B23" s="4">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>775</v>
-      </c>
-      <c r="B24" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10</v>
-      </c>
-      <c r="D24" s="5">
-        <v>5</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>750</v>
-      </c>
-      <c r="B25" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C25" s="4">
-        <v>10</v>
-      </c>
-      <c r="D25" s="5">
-        <v>5</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>725</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10</v>
-      </c>
-      <c r="D26" s="5">
-        <v>5</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>700</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C27" s="4">
-        <v>10</v>
-      </c>
-      <c r="D27" s="5">
-        <v>5</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>675</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C28" s="4">
-        <v>10</v>
-      </c>
-      <c r="D28" s="5">
-        <v>5</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>650</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C29" s="4">
-        <v>10</v>
-      </c>
-      <c r="D29" s="5">
-        <v>5</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>625</v>
-      </c>
-      <c r="B30" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C30" s="4">
-        <v>10</v>
-      </c>
-      <c r="D30" s="5">
-        <v>5</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>600</v>
-      </c>
-      <c r="B31" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C31" s="4">
-        <v>10</v>
-      </c>
-      <c r="D31" s="5">
-        <v>5</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>575</v>
-      </c>
-      <c r="B32" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C32" s="4">
-        <v>10</v>
-      </c>
-      <c r="D32" s="5">
-        <v>5</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>550</v>
-      </c>
-      <c r="B33" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C33" s="4">
-        <v>10</v>
-      </c>
-      <c r="D33" s="5">
-        <v>5</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>525</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C34" s="4">
-        <v>10</v>
-      </c>
-      <c r="D34" s="5">
-        <v>5</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>500</v>
-      </c>
-      <c r="B35" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C35" s="4">
-        <v>10</v>
-      </c>
-      <c r="D35" s="5">
-        <v>5</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>475</v>
-      </c>
-      <c r="B36" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C36" s="4">
-        <v>10</v>
-      </c>
-      <c r="D36" s="5">
-        <v>5</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>450</v>
-      </c>
-      <c r="B37" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C37" s="4">
-        <v>10</v>
-      </c>
-      <c r="D37" s="5">
-        <v>5</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>425</v>
-      </c>
-      <c r="B38" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C38" s="4">
-        <v>10</v>
-      </c>
-      <c r="D38" s="5">
-        <v>5</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>400</v>
-      </c>
-      <c r="B39" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C39" s="4">
-        <v>10</v>
-      </c>
-      <c r="D39" s="5">
-        <v>5</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>375</v>
-      </c>
-      <c r="B40" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>10</v>
-      </c>
-      <c r="D40" s="5">
-        <v>5</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>350</v>
-      </c>
-      <c r="B41" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C41" s="4">
-        <v>10</v>
-      </c>
-      <c r="D41" s="5">
-        <v>5</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>325</v>
-      </c>
-      <c r="B42" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C42" s="4">
-        <v>10</v>
-      </c>
-      <c r="D42" s="5">
-        <v>5</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>300</v>
-      </c>
-      <c r="B43" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C43" s="4">
-        <v>10</v>
-      </c>
-      <c r="D43" s="5">
-        <v>5</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
